--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.52760684317012</v>
+        <v>0.06507433333333333</v>
       </c>
       <c r="H2">
-        <v>7.52760684317012</v>
+        <v>0.195223</v>
       </c>
       <c r="I2">
-        <v>0.4162235404490545</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="J2">
-        <v>0.4162235404490545</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.37421118656501</v>
+        <v>0.2298373333333333</v>
       </c>
       <c r="N2">
-        <v>8.37421118656501</v>
+        <v>0.689512</v>
       </c>
       <c r="O2">
-        <v>0.9599046450919442</v>
+        <v>0.02491532190107932</v>
       </c>
       <c r="P2">
-        <v>0.9599046450919442</v>
+        <v>0.02491532190107933</v>
       </c>
       <c r="Q2">
-        <v>63.03776943413854</v>
+        <v>0.01495651124177778</v>
       </c>
       <c r="R2">
-        <v>63.03776943413854</v>
+        <v>0.134608601176</v>
       </c>
       <c r="S2">
-        <v>0.3995349098736621</v>
+        <v>6.943832663100697E-05</v>
       </c>
       <c r="T2">
-        <v>0.3995349098736621</v>
+        <v>6.9438326631007E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,134 +587,134 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.52760684317012</v>
+        <v>0.06507433333333333</v>
       </c>
       <c r="H3">
-        <v>7.52760684317012</v>
+        <v>0.195223</v>
       </c>
       <c r="I3">
-        <v>0.4162235404490545</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="J3">
-        <v>0.4162235404490545</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.34979200415076</v>
+        <v>8.445752666666667</v>
       </c>
       <c r="N3">
-        <v>0.34979200415076</v>
+        <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.0400953549080558</v>
+        <v>0.9155546809347732</v>
       </c>
       <c r="P3">
-        <v>0.0400953549080558</v>
+        <v>0.9155546809347734</v>
       </c>
       <c r="Q3">
-        <v>2.633096684131452</v>
+        <v>0.5496017242815556</v>
       </c>
       <c r="R3">
-        <v>2.633096684131452</v>
+        <v>4.946415518534001</v>
       </c>
       <c r="S3">
-        <v>0.01668863057539236</v>
+        <v>0.00255162607313302</v>
       </c>
       <c r="T3">
-        <v>0.01668863057539236</v>
+        <v>0.00255162607313302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.62216995946422</v>
+        <v>0.06507433333333333</v>
       </c>
       <c r="H4">
-        <v>5.62216995946422</v>
+        <v>0.195223</v>
       </c>
       <c r="I4">
-        <v>0.3108663263488176</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="J4">
-        <v>0.3108663263488176</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>8.37421118656501</v>
+        <v>0.04220933333333333</v>
       </c>
       <c r="N4">
-        <v>8.37421118656501</v>
+        <v>0.126628</v>
       </c>
       <c r="O4">
-        <v>0.9599046450919442</v>
+        <v>0.004575667111942754</v>
       </c>
       <c r="P4">
-        <v>0.9599046450919442</v>
+        <v>0.004575667111942755</v>
       </c>
       <c r="Q4">
-        <v>47.08123856731501</v>
+        <v>0.00274674422711111</v>
       </c>
       <c r="R4">
-        <v>47.08123856731501</v>
+        <v>0.024720698044</v>
       </c>
       <c r="S4">
-        <v>0.2984020306648982</v>
+        <v>1.275226018492956E-05</v>
       </c>
       <c r="T4">
-        <v>0.2984020306648982</v>
+        <v>1.275226018492956E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -720,297 +723,1351 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.62216995946422</v>
+        <v>0.06507433333333333</v>
       </c>
       <c r="H5">
-        <v>5.62216995946422</v>
+        <v>0.195223</v>
       </c>
       <c r="I5">
-        <v>0.3108663263488176</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="J5">
-        <v>0.3108663263488176</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.34979200415076</v>
+        <v>0.006559666666666666</v>
       </c>
       <c r="N5">
-        <v>0.34979200415076</v>
+        <v>0.019679</v>
       </c>
       <c r="O5">
-        <v>0.0400953549080558</v>
+        <v>0.0007110951218997493</v>
       </c>
       <c r="P5">
-        <v>0.0400953549080558</v>
+        <v>0.0007110951218997495</v>
       </c>
       <c r="Q5">
-        <v>1.966590097797186</v>
+        <v>0.0004268659352222222</v>
       </c>
       <c r="R5">
-        <v>1.966590097797186</v>
+        <v>0.003841793417</v>
       </c>
       <c r="S5">
-        <v>0.01246429568391934</v>
+        <v>1.98180282543536E-06</v>
       </c>
       <c r="T5">
-        <v>0.01246429568391934</v>
+        <v>1.981802825435361E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.62301037704998</v>
+        <v>0.06507433333333333</v>
       </c>
       <c r="H6">
-        <v>4.62301037704998</v>
+        <v>0.195223</v>
       </c>
       <c r="I6">
-        <v>0.2556198519339934</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="J6">
-        <v>0.2556198519339934</v>
+        <v>0.002786972887875831</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.37421118656501</v>
+        <v>0.5003796666666667</v>
       </c>
       <c r="N6">
-        <v>8.37421118656501</v>
+        <v>1.501139</v>
       </c>
       <c r="O6">
-        <v>0.9599046450919442</v>
+        <v>0.05424323493030479</v>
       </c>
       <c r="P6">
-        <v>0.9599046450919442</v>
+        <v>0.0542432349303048</v>
       </c>
       <c r="Q6">
-        <v>38.71406521509807</v>
+        <v>0.03256187322188889</v>
       </c>
       <c r="R6">
-        <v>38.71406521509807</v>
+        <v>0.293056858997</v>
       </c>
       <c r="S6">
-        <v>0.2453706832491553</v>
+        <v>0.0001511744251014387</v>
       </c>
       <c r="T6">
-        <v>0.2453706832491553</v>
+        <v>0.0001511744251014387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.62301037704998</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H7">
-        <v>4.62301037704998</v>
+        <v>22.735514</v>
       </c>
       <c r="I7">
-        <v>0.2556198519339934</v>
+        <v>0.3245686272105304</v>
       </c>
       <c r="J7">
-        <v>0.2556198519339934</v>
+        <v>0.3245686272105304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.34979200415076</v>
+        <v>0.2298373333333333</v>
       </c>
       <c r="N7">
-        <v>0.34979200415076</v>
+        <v>0.689512</v>
       </c>
       <c r="O7">
-        <v>0.0400953549080558</v>
+        <v>0.02491532190107932</v>
       </c>
       <c r="P7">
-        <v>0.0400953549080558</v>
+        <v>0.02491532190107933</v>
       </c>
       <c r="Q7">
-        <v>1.617092064998073</v>
+        <v>1.741823303240889</v>
       </c>
       <c r="R7">
-        <v>1.617092064998073</v>
+        <v>15.676409729168</v>
       </c>
       <c r="S7">
-        <v>0.01024916868483814</v>
+        <v>0.008086731825941778</v>
       </c>
       <c r="T7">
-        <v>0.01024916868483814</v>
+        <v>0.008086731825941782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.312703215810248</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H8">
-        <v>0.312703215810248</v>
+        <v>22.735514</v>
       </c>
       <c r="I8">
-        <v>0.01729028126813461</v>
+        <v>0.3245686272105304</v>
       </c>
       <c r="J8">
-        <v>0.01729028126813461</v>
+        <v>0.3245686272105304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.37421118656501</v>
+        <v>8.445752666666667</v>
       </c>
       <c r="N8">
-        <v>8.37421118656501</v>
+        <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9599046450919442</v>
+        <v>0.9155546809347732</v>
       </c>
       <c r="P8">
-        <v>0.9599046450919442</v>
+        <v>0.9155546809347734</v>
       </c>
       <c r="Q8">
-        <v>2.618642767913031</v>
+        <v>64.00617599784579</v>
       </c>
       <c r="R8">
-        <v>2.618642767913031</v>
+        <v>576.055583980612</v>
       </c>
       <c r="S8">
-        <v>0.01659702130422864</v>
+        <v>0.2971603259271745</v>
       </c>
       <c r="T8">
-        <v>0.01659702130422864</v>
+        <v>0.2971603259271746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.578504666666666</v>
+      </c>
+      <c r="H9">
+        <v>22.735514</v>
+      </c>
+      <c r="I9">
+        <v>0.3245686272105304</v>
+      </c>
+      <c r="J9">
+        <v>0.3245686272105304</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.126628</v>
+      </c>
+      <c r="O9">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P9">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q9">
+        <v>0.3198836296435555</v>
+      </c>
+      <c r="R9">
+        <v>2.878952666792</v>
+      </c>
+      <c r="S9">
+        <v>0.001485117993095632</v>
+      </c>
+      <c r="T9">
+        <v>0.001485117993095632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.578504666666666</v>
+      </c>
+      <c r="H10">
+        <v>22.735514</v>
+      </c>
+      <c r="I10">
+        <v>0.3245686272105304</v>
+      </c>
+      <c r="J10">
+        <v>0.3245686272105304</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.019679</v>
+      </c>
+      <c r="O10">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P10">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q10">
+        <v>0.04971246444511111</v>
+      </c>
+      <c r="R10">
+        <v>0.4474121800059999</v>
+      </c>
+      <c r="S10">
+        <v>0.0002307991675311064</v>
+      </c>
+      <c r="T10">
+        <v>0.0002307991675311065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.578504666666666</v>
+      </c>
+      <c r="H11">
+        <v>22.735514</v>
+      </c>
+      <c r="I11">
+        <v>0.3245686272105304</v>
+      </c>
+      <c r="J11">
+        <v>0.3245686272105304</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.501139</v>
+      </c>
+      <c r="O11">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P11">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q11">
+        <v>3.792129638938444</v>
+      </c>
+      <c r="R11">
+        <v>34.129166750446</v>
+      </c>
+      <c r="S11">
+        <v>0.01760565229678732</v>
+      </c>
+      <c r="T11">
+        <v>0.01760565229678732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.305763</v>
+      </c>
+      <c r="H12">
+        <v>21.917289</v>
+      </c>
+      <c r="I12">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="J12">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.689512</v>
+      </c>
+      <c r="O12">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P12">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q12">
+        <v>1.679137085885333</v>
+      </c>
+      <c r="R12">
+        <v>15.112233772968</v>
+      </c>
+      <c r="S12">
+        <v>0.007795699648341519</v>
+      </c>
+      <c r="T12">
+        <v>0.007795699648341521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.305763</v>
+      </c>
+      <c r="H13">
+        <v>21.917289</v>
+      </c>
+      <c r="I13">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="J13">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N13">
+        <v>25.337258</v>
+      </c>
+      <c r="O13">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P13">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q13">
+        <v>61.70266733928467</v>
+      </c>
+      <c r="R13">
+        <v>555.324006053562</v>
+      </c>
+      <c r="S13">
+        <v>0.2864658675708883</v>
+      </c>
+      <c r="T13">
+        <v>0.2864658675708884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.305763</v>
+      </c>
+      <c r="H14">
+        <v>21.917289</v>
+      </c>
+      <c r="I14">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="J14">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.126628</v>
+      </c>
+      <c r="O14">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P14">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q14">
+        <v>0.3083713857213333</v>
+      </c>
+      <c r="R14">
+        <v>2.775342471492</v>
+      </c>
+      <c r="S14">
+        <v>0.001431670304607011</v>
+      </c>
+      <c r="T14">
+        <v>0.001431670304607012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.312703215810248</v>
-      </c>
-      <c r="H9">
-        <v>0.312703215810248</v>
-      </c>
-      <c r="I9">
-        <v>0.01729028126813461</v>
-      </c>
-      <c r="J9">
-        <v>0.01729028126813461</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.34979200415076</v>
-      </c>
-      <c r="N9">
-        <v>0.34979200415076</v>
-      </c>
-      <c r="O9">
-        <v>0.0400953549080558</v>
-      </c>
-      <c r="P9">
-        <v>0.0400953549080558</v>
-      </c>
-      <c r="Q9">
-        <v>0.1093810845626543</v>
-      </c>
-      <c r="R9">
-        <v>0.1093810845626543</v>
-      </c>
-      <c r="S9">
-        <v>0.0006932599639059661</v>
-      </c>
-      <c r="T9">
-        <v>0.0006932599639059661</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.305763</v>
+      </c>
+      <c r="H15">
+        <v>21.917289</v>
+      </c>
+      <c r="I15">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="J15">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.019679</v>
+      </c>
+      <c r="O15">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P15">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q15">
+        <v>0.04792337002566666</v>
+      </c>
+      <c r="R15">
+        <v>0.431310330231</v>
+      </c>
+      <c r="S15">
+        <v>0.0002224929709413509</v>
+      </c>
+      <c r="T15">
+        <v>0.0002224929709413509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.305763</v>
+      </c>
+      <c r="H16">
+        <v>21.917289</v>
+      </c>
+      <c r="I16">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="J16">
+        <v>0.3128877756142421</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.501139</v>
+      </c>
+      <c r="O16">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P16">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q16">
+        <v>3.655655254685667</v>
+      </c>
+      <c r="R16">
+        <v>32.900897292171</v>
+      </c>
+      <c r="S16">
+        <v>0.01697204511946382</v>
+      </c>
+      <c r="T16">
+        <v>0.01697204511946383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.002077666666667</v>
+      </c>
+      <c r="H17">
+        <v>24.006233</v>
+      </c>
+      <c r="I17">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="J17">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.689512</v>
+      </c>
+      <c r="O17">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P17">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q17">
+        <v>1.839176192032889</v>
+      </c>
+      <c r="R17">
+        <v>16.552585728296</v>
+      </c>
+      <c r="S17">
+        <v>0.008538710337583473</v>
+      </c>
+      <c r="T17">
+        <v>0.008538710337583477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.002077666666667</v>
+      </c>
+      <c r="H18">
+        <v>24.006233</v>
+      </c>
+      <c r="I18">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="J18">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N18">
+        <v>25.337258</v>
+      </c>
+      <c r="O18">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P18">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q18">
+        <v>67.58356879212378</v>
+      </c>
+      <c r="R18">
+        <v>608.252119129114</v>
+      </c>
+      <c r="S18">
+        <v>0.3137690233246406</v>
+      </c>
+      <c r="T18">
+        <v>0.3137690233246407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.002077666666667</v>
+      </c>
+      <c r="H19">
+        <v>24.006233</v>
+      </c>
+      <c r="I19">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="J19">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.126628</v>
+      </c>
+      <c r="O19">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P19">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q19">
+        <v>0.3377623635915555</v>
+      </c>
+      <c r="R19">
+        <v>3.039861272323999</v>
+      </c>
+      <c r="S19">
+        <v>0.001568123270700902</v>
+      </c>
+      <c r="T19">
+        <v>0.001568123270700902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.002077666666667</v>
+      </c>
+      <c r="H20">
+        <v>24.006233</v>
+      </c>
+      <c r="I20">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="J20">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.019679</v>
+      </c>
+      <c r="O20">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P20">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q20">
+        <v>0.05249096213411111</v>
+      </c>
+      <c r="R20">
+        <v>0.4724186592069999</v>
+      </c>
+      <c r="S20">
+        <v>0.0002436988489443333</v>
+      </c>
+      <c r="T20">
+        <v>0.0002436988489443334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.002077666666667</v>
+      </c>
+      <c r="H21">
+        <v>24.006233</v>
+      </c>
+      <c r="I21">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="J21">
+        <v>0.3427092120858202</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.501139</v>
+      </c>
+      <c r="O21">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P21">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q21">
+        <v>4.004076955487444</v>
+      </c>
+      <c r="R21">
+        <v>36.036692599387</v>
+      </c>
+      <c r="S21">
+        <v>0.01858965630395079</v>
+      </c>
+      <c r="T21">
+        <v>0.0185896563039508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.398048</v>
+      </c>
+      <c r="H22">
+        <v>1.194144</v>
+      </c>
+      <c r="I22">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="J22">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.689512</v>
+      </c>
+      <c r="O22">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P22">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q22">
+        <v>0.09148629085866668</v>
+      </c>
+      <c r="R22">
+        <v>0.8233766177280001</v>
+      </c>
+      <c r="S22">
+        <v>0.0004247417625815463</v>
+      </c>
+      <c r="T22">
+        <v>0.0004247417625815464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.398048</v>
+      </c>
+      <c r="H23">
+        <v>1.194144</v>
+      </c>
+      <c r="I23">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="J23">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N23">
+        <v>25.337258</v>
+      </c>
+      <c r="O23">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P23">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q23">
+        <v>3.361814957461334</v>
+      </c>
+      <c r="R23">
+        <v>30.256334617152</v>
+      </c>
+      <c r="S23">
+        <v>0.01560783803893679</v>
+      </c>
+      <c r="T23">
+        <v>0.01560783803893679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.398048</v>
+      </c>
+      <c r="H24">
+        <v>1.194144</v>
+      </c>
+      <c r="I24">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="J24">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.126628</v>
+      </c>
+      <c r="O24">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P24">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q24">
+        <v>0.01680134071466666</v>
+      </c>
+      <c r="R24">
+        <v>0.151212066432</v>
+      </c>
+      <c r="S24">
+        <v>7.800328335427959E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.800328335427961E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.398048</v>
+      </c>
+      <c r="H25">
+        <v>1.194144</v>
+      </c>
+      <c r="I25">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="J25">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.019679</v>
+      </c>
+      <c r="O25">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P25">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q25">
+        <v>0.002611062197333333</v>
+      </c>
+      <c r="R25">
+        <v>0.023499559776</v>
+      </c>
+      <c r="S25">
+        <v>1.212233165752336E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.212233165752336E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.398048</v>
+      </c>
+      <c r="H26">
+        <v>1.194144</v>
+      </c>
+      <c r="I26">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="J26">
+        <v>0.01704741220153156</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.501139</v>
+      </c>
+      <c r="O26">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P26">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q26">
+        <v>0.1991751255573333</v>
+      </c>
+      <c r="R26">
+        <v>1.792576130016</v>
+      </c>
+      <c r="S26">
+        <v>0.0009247067850014209</v>
+      </c>
+      <c r="T26">
+        <v>0.0009247067850014211</v>
       </c>
     </row>
   </sheetData>
